--- a/src/main/resources/documents/predsjednici2025_3.xlsx
+++ b/src/main/resources/documents/predsjednici2025_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malin\Documents\Izbori\flow-crm-tutorial\src\main\resources\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C975BEBD-B546-4BFC-A5AA-52BF5F1ACA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4E2877-6AB3-4E2F-B8D8-223C05840301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26115" yWindow="3450" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="1988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="1988">
   <si>
     <t>JMBG</t>
   </si>
@@ -6883,8 +6883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" zoomScale="126" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="126" workbookViewId="0">
+      <selection activeCell="H530" sqref="H530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16447,6 +16447,9 @@
       <c r="B530" t="s">
         <v>1960</v>
       </c>
+      <c r="C530" s="61" t="s">
+        <v>1966</v>
+      </c>
       <c r="D530" s="1" t="s">
         <v>1961</v>
       </c>
